--- a/Venda/Venda_Junho_2023.xlsx
+++ b/Venda/Venda_Junho_2023.xlsx
@@ -13510,7 +13510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1959"/>
+  <dimension ref="A1:M1959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13529,10 +13529,9 @@
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13572,9 +13571,8 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>270</v>
       </c>
@@ -13615,7 +13613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>270</v>
       </c>
@@ -13656,7 +13654,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
@@ -13697,7 +13695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>270</v>
       </c>
@@ -13738,7 +13736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>270</v>
       </c>
@@ -13779,7 +13777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>270</v>
       </c>
@@ -13818,7 +13816,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>270</v>
       </c>
@@ -13859,7 +13857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>270</v>
       </c>
@@ -13900,7 +13898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>270</v>
       </c>
@@ -13941,7 +13939,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>270</v>
       </c>
@@ -13982,7 +13980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>270</v>
       </c>
@@ -14023,7 +14021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>270</v>
       </c>
@@ -14062,7 +14060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>270</v>
       </c>
@@ -14101,7 +14099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -14142,7 +14140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>270</v>
       </c>
